--- a/output/17stycznia/sheets/17stycznia_long_term_monthly_average_noise_levels.xlsx
+++ b/output/17stycznia/sheets/17stycznia_long_term_monthly_average_noise_levels.xlsx
@@ -145,7 +145,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6096000" cy="4572000"/>
+    <ext cx="15392400" cy="5943600"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.97741935483871</v>
+        <v>47.95341008721422</v>
       </c>
       <c r="C2" t="n">
-        <v>32.48387096774194</v>
+        <v>46.04910993380615</v>
       </c>
     </row>
     <row r="3">
@@ -500,10 +500,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.66071428571428</v>
+        <v>43.63947722438841</v>
       </c>
       <c r="C3" t="n">
-        <v>28.36785714285714</v>
+        <v>45.05220301193376</v>
       </c>
     </row>
     <row r="4">
@@ -513,10 +513,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.61612903225806</v>
+        <v>44.5784559115604</v>
       </c>
       <c r="C4" t="n">
-        <v>36.00322580645161</v>
+        <v>45.41370042827219</v>
       </c>
     </row>
     <row r="5">
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.20666666666667</v>
+        <v>46.4376241178928</v>
       </c>
       <c r="C5" t="n">
-        <v>41.30333333333333</v>
+        <v>48.03160573286605</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.66129032258064</v>
+        <v>41.99044591852494</v>
       </c>
       <c r="C6" t="n">
-        <v>27.50322580645161</v>
+        <v>44.04949749829412</v>
       </c>
     </row>
     <row r="7">
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37.3</v>
+        <v>42.86485834007175</v>
       </c>
       <c r="C7" t="n">
-        <v>30.27333333333333</v>
+        <v>42.81172641403686</v>
       </c>
     </row>
     <row r="8">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39.86451612903225</v>
+        <v>45.87240772600968</v>
       </c>
       <c r="C8" t="n">
-        <v>37.81612903225806</v>
+        <v>43.39634295847918</v>
       </c>
     </row>
     <row r="9">
@@ -578,10 +578,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>43.66774193548387</v>
+        <v>46.623504605908</v>
       </c>
       <c r="C9" t="n">
-        <v>39.70322580645161</v>
+        <v>47.11697523417988</v>
       </c>
     </row>
     <row r="10">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.03</v>
+        <v>48.72357024471676</v>
       </c>
       <c r="C10" t="n">
-        <v>43.53333333333333</v>
+        <v>49.31231344893554</v>
       </c>
     </row>
     <row r="11">
@@ -604,10 +604,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>51.02258064516129</v>
+        <v>52.28783328648247</v>
       </c>
       <c r="C11" t="n">
-        <v>50.48064516129033</v>
+        <v>51.37437122350114</v>
       </c>
     </row>
     <row r="12">
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.39666666666667</v>
+        <v>45.80891013155023</v>
       </c>
       <c r="C12" t="n">
-        <v>43.64666666666667</v>
+        <v>46.24512787455138</v>
       </c>
     </row>
     <row r="13">
@@ -630,10 +630,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.96129032258064</v>
+        <v>50.01656377002724</v>
       </c>
       <c r="C13" t="n">
-        <v>47.83548387096774</v>
+        <v>48.97643166822741</v>
       </c>
     </row>
     <row r="14">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.2741935483871</v>
+        <v>47.87097365366276</v>
       </c>
       <c r="C14" t="n">
-        <v>44.73548387096774</v>
+        <v>47.4453956694612</v>
       </c>
     </row>
     <row r="15">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>47.46785714285714</v>
+        <v>49.90475410869819</v>
       </c>
       <c r="C15" t="n">
-        <v>46.73928571428571</v>
+        <v>48.20779916646011</v>
       </c>
     </row>
     <row r="16">
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>51.11935483870968</v>
+        <v>52.30241715139378</v>
       </c>
       <c r="C16" t="n">
-        <v>48.78387096774193</v>
+        <v>49.5611794502749</v>
       </c>
     </row>
     <row r="17">
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.96666666666667</v>
+        <v>48.77187530783128</v>
       </c>
       <c r="C17" t="n">
-        <v>47.28</v>
+        <v>48.54643251194061</v>
       </c>
     </row>
     <row r="18">
@@ -695,10 +695,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>49.87741935483871</v>
+        <v>50.71140900560949</v>
       </c>
       <c r="C18" t="n">
-        <v>46.19677419354839</v>
+        <v>49.77696964844947</v>
       </c>
     </row>
     <row r="19">
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>44.11666666666667</v>
+        <v>45.54786441297172</v>
       </c>
       <c r="C19" t="n">
-        <v>46.22333333333334</v>
+        <v>46.93753816240417</v>
       </c>
     </row>
     <row r="20">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>45.3</v>
+        <v>46.06900133801216</v>
       </c>
       <c r="C20" t="n">
-        <v>46.00967741935484</v>
+        <v>46.75159862398829</v>
       </c>
     </row>
     <row r="21">
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>44.07419354838709</v>
+        <v>45.30912534760666</v>
       </c>
       <c r="C21" t="n">
-        <v>44.81290322580645</v>
+        <v>46.46618386932432</v>
       </c>
     </row>
     <row r="22">
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.41666666666666</v>
+        <v>49.56787046246124</v>
       </c>
       <c r="C22" t="n">
-        <v>49.00333333333333</v>
+        <v>49.58320512440658</v>
       </c>
     </row>
     <row r="23">
@@ -760,10 +760,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>50.54516129032258</v>
+        <v>51.80206763127992</v>
       </c>
       <c r="C23" t="n">
-        <v>49.89677419354839</v>
+        <v>50.53198539378954</v>
       </c>
     </row>
     <row r="24">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>47.08666666666667</v>
+        <v>49.18952035205052</v>
       </c>
       <c r="C24" t="n">
-        <v>47.6</v>
+        <v>48.23457513261803</v>
       </c>
     </row>
     <row r="25">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.50967741935484</v>
+        <v>51.5169956113084</v>
       </c>
       <c r="C25" t="n">
-        <v>47.69354838709678</v>
+        <v>48.90618723772181</v>
       </c>
     </row>
     <row r="26">
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.62903225806452</v>
+        <v>49.36009377122264</v>
       </c>
       <c r="C26" t="n">
-        <v>47.24516129032258</v>
+        <v>47.66484793256699</v>
       </c>
     </row>
     <row r="27">
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>47.49310344827586</v>
+        <v>48.68213074604331</v>
       </c>
       <c r="C27" t="n">
-        <v>43.26206896551724</v>
+        <v>48.29601607599904</v>
       </c>
     </row>
     <row r="28">
@@ -825,10 +825,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.24516129032258</v>
+        <v>46.89862497035124</v>
       </c>
       <c r="C28" t="n">
-        <v>30.97741935483871</v>
+        <v>45.01345208857217</v>
       </c>
     </row>
     <row r="29">
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>28.51666666666667</v>
+        <v>39.85112763115779</v>
       </c>
       <c r="C29" t="n">
-        <v>24.3</v>
+        <v>38.75758014682168</v>
       </c>
     </row>
     <row r="30">
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>36.60967741935484</v>
+        <v>43.50705427991691</v>
       </c>
       <c r="C30" t="n">
-        <v>19.84516129032258</v>
+        <v>40.18513049801727</v>
       </c>
     </row>
     <row r="31">
@@ -864,10 +864,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>39.38666666666666</v>
+        <v>44.51002714218778</v>
       </c>
       <c r="C31" t="n">
-        <v>25.05333333333333</v>
+        <v>37.33906246712478</v>
       </c>
     </row>
     <row r="32">
@@ -877,10 +877,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>32.21935483870968</v>
+        <v>40.47464105563791</v>
       </c>
       <c r="C32" t="n">
-        <v>34.13870967741936</v>
+        <v>41.69408429136239</v>
       </c>
     </row>
     <row r="33">
@@ -890,10 +890,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>37.79032258064516</v>
+        <v>41.59920894768682</v>
       </c>
       <c r="C33" t="n">
-        <v>39.46774193548387</v>
+        <v>42.35173201406835</v>
       </c>
     </row>
     <row r="34">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.41</v>
+        <v>45.55765668723984</v>
       </c>
       <c r="C34" t="n">
-        <v>41.18666666666666</v>
+        <v>44.63424329041328</v>
       </c>
     </row>
     <row r="35">
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>40.78709677419355</v>
+        <v>44.23907725500489</v>
       </c>
       <c r="C35" t="n">
-        <v>36.74516129032258</v>
+        <v>41.9457942978447</v>
       </c>
     </row>
     <row r="36">
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>38.85666666666667</v>
+        <v>44.83441871267824</v>
       </c>
       <c r="C36" t="n">
-        <v>35.56</v>
+        <v>41.73273042276357</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>37.72258064516129</v>
+        <v>43.19266887493753</v>
       </c>
       <c r="C37" t="n">
-        <v>35.8</v>
+        <v>41.42092826104374</v>
       </c>
     </row>
     <row r="38">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>30.66129032258064</v>
+        <v>42.59788722729365</v>
       </c>
       <c r="C38" t="n">
-        <v>31.18387096774194</v>
+        <v>38.91191256956743</v>
       </c>
     </row>
     <row r="39">
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>35.975</v>
+        <v>44.09263170057177</v>
       </c>
       <c r="C39" t="n">
-        <v>21.98928571428572</v>
+        <v>40.34974705838231</v>
       </c>
     </row>
     <row r="40">
@@ -981,10 +981,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>33.77096774193549</v>
+        <v>43.34282818119231</v>
       </c>
       <c r="C40" t="n">
-        <v>31.06451612903226</v>
+        <v>40.55975766462464</v>
       </c>
     </row>
     <row r="41">
@@ -994,10 +994,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.61</v>
+        <v>42.86319742782641</v>
       </c>
       <c r="C41" t="n">
-        <v>35.24</v>
+        <v>41.4378743021276</v>
       </c>
     </row>
     <row r="42">
@@ -1007,10 +1007,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>36.29354838709677</v>
+        <v>43.13781814439857</v>
       </c>
       <c r="C42" t="n">
-        <v>35.49677419354839</v>
+        <v>42.4376710145393</v>
       </c>
     </row>
     <row r="43">
@@ -1020,10 +1020,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>39.77</v>
+        <v>41.32346864225102</v>
       </c>
       <c r="C43" t="n">
-        <v>36.06333333333334</v>
+        <v>42.72157506491138</v>
       </c>
     </row>
     <row r="44">
@@ -1033,10 +1033,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>38.89354838709678</v>
+        <v>43.08561605158939</v>
       </c>
       <c r="C44" t="n">
-        <v>39.09677419354838</v>
+        <v>45.03109144707669</v>
       </c>
     </row>
     <row r="45">
@@ -1046,10 +1046,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>42.09354838709677</v>
+        <v>45.1702494984843</v>
       </c>
       <c r="C45" t="n">
-        <v>45.55806451612903</v>
+        <v>46.95977796883263</v>
       </c>
     </row>
     <row r="46">
@@ -1059,10 +1059,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>43.14333333333333</v>
+        <v>45.83714415307468</v>
       </c>
       <c r="C46" t="n">
-        <v>41.65</v>
+        <v>47.7558448647448</v>
       </c>
     </row>
     <row r="47">
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>45.16129032258065</v>
+        <v>46.75727349554653</v>
       </c>
       <c r="C47" t="n">
-        <v>44.91935483870968</v>
+        <v>46.36672813519635</v>
       </c>
     </row>
     <row r="48">
@@ -1085,10 +1085,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>38.59333333333333</v>
+        <v>46.32106508234045</v>
       </c>
       <c r="C48" t="n">
-        <v>40.96666666666667</v>
+        <v>45.10427322754736</v>
       </c>
     </row>
     <row r="49">
@@ -1098,10 +1098,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>36.66129032258065</v>
+        <v>45.10714013577939</v>
       </c>
       <c r="C49" t="n">
-        <v>39.05806451612903</v>
+        <v>44.56731500116378</v>
       </c>
     </row>
     <row r="50">
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>33.35161290322581</v>
+        <v>41.49875893448741</v>
       </c>
       <c r="C50" t="n">
-        <v>35.86451612903225</v>
+        <v>41.82221599329906</v>
       </c>
     </row>
     <row r="51">
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>38.26785714285715</v>
+        <v>46.61329687371101</v>
       </c>
       <c r="C51" t="n">
-        <v>36.57142857142857</v>
+        <v>47.13513668057766</v>
       </c>
     </row>
     <row r="52">
@@ -1137,10 +1137,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>33.65161290322581</v>
+        <v>45.58381382051336</v>
       </c>
       <c r="C52" t="n">
-        <v>32.82258064516129</v>
+        <v>44.74112154761509</v>
       </c>
     </row>
     <row r="53">
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>31.05666666666667</v>
+        <v>41.59833149818952</v>
       </c>
       <c r="C53" t="n">
-        <v>32.66666666666666</v>
+        <v>41.22852339607903</v>
       </c>
     </row>
     <row r="54">
@@ -1163,10 +1163,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>31.60645161290323</v>
+        <v>41.03486045486594</v>
       </c>
       <c r="C54" t="n">
-        <v>35.87741935483871</v>
+        <v>43.73693444147278</v>
       </c>
     </row>
     <row r="55">
@@ -1176,10 +1176,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>39.56</v>
+        <v>43.64058135626231</v>
       </c>
       <c r="C55" t="n">
-        <v>38.25</v>
+        <v>44.88332361242754</v>
       </c>
     </row>
     <row r="56">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>35.29677419354839</v>
+        <v>41.35431115799126</v>
       </c>
       <c r="C56" t="n">
-        <v>38.57096774193548</v>
+        <v>43.12287102266196</v>
       </c>
     </row>
     <row r="57">
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>30.0741935483871</v>
+        <v>39.28183265753997</v>
       </c>
       <c r="C57" t="n">
-        <v>37.40322580645162</v>
+        <v>40.98522929072932</v>
       </c>
     </row>
     <row r="58">
@@ -1215,10 +1215,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>39.69333333333334</v>
+        <v>45.1929350131084</v>
       </c>
       <c r="C58" t="n">
-        <v>44.49333333333333</v>
+        <v>46.13174932734093</v>
       </c>
     </row>
     <row r="59">
@@ -1228,10 +1228,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>47.33548387096774</v>
+        <v>49.65555196704511</v>
       </c>
       <c r="C59" t="n">
-        <v>46.83548387096774</v>
+        <v>48.46042992658121</v>
       </c>
     </row>
     <row r="60">
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>38.9</v>
+        <v>44.86305254894414</v>
       </c>
       <c r="C60" t="n">
-        <v>44.13333333333333</v>
+        <v>45.99402428545702</v>
       </c>
     </row>
     <row r="61">
@@ -1254,10 +1254,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>39.26774193548387</v>
+        <v>47.82468045654075</v>
       </c>
       <c r="C61" t="n">
-        <v>44.49677419354839</v>
+        <v>46.3443378208876</v>
       </c>
     </row>
     <row r="62">
@@ -1267,10 +1267,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>42.4483870967742</v>
+        <v>47.76607333643006</v>
       </c>
       <c r="C62" t="n">
-        <v>44.01935483870967</v>
+        <v>45.68176485241351</v>
       </c>
     </row>
     <row r="63">
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>42.03571428571428</v>
+        <v>45.69033800901121</v>
       </c>
       <c r="C63" t="n">
-        <v>42.06785714285714</v>
+        <v>45.98710128744607</v>
       </c>
     </row>
     <row r="64">
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>46.16451612903226</v>
+        <v>48.19107441508626</v>
       </c>
       <c r="C64" t="n">
-        <v>48.12903225806452</v>
+        <v>48.96847849944159</v>
       </c>
     </row>
     <row r="65">
@@ -1306,10 +1306,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>35.12</v>
+        <v>41.42966714920368</v>
       </c>
       <c r="C65" t="n">
-        <v>40.98666666666666</v>
+        <v>44.38639721603258</v>
       </c>
     </row>
     <row r="66">
@@ -1319,10 +1319,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>40.08387096774193</v>
+        <v>42.74174983957295</v>
       </c>
       <c r="C66" t="n">
-        <v>42.53225806451613</v>
+        <v>45.58398611506489</v>
       </c>
     </row>
     <row r="67">
@@ -1332,10 +1332,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>45.10666666666667</v>
+        <v>49.21909997768453</v>
       </c>
       <c r="C67" t="n">
-        <v>49.14666666666667</v>
+        <v>50.67760722936445</v>
       </c>
     </row>
     <row r="68">
@@ -1345,10 +1345,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>41.50645161290323</v>
+        <v>42.6945906046932</v>
       </c>
       <c r="C68" t="n">
-        <v>43.79677419354839</v>
+        <v>46.45770520076429</v>
       </c>
     </row>
     <row r="69">
@@ -1358,10 +1358,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>42.40322580645162</v>
+        <v>45.46305995390141</v>
       </c>
       <c r="C69" t="n">
-        <v>45.45161290322581</v>
+        <v>48.66674991719962</v>
       </c>
     </row>
     <row r="70">
@@ -1371,10 +1371,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>46.64193548387097</v>
+        <v>48.40202453906367</v>
       </c>
       <c r="C70" t="n">
-        <v>48.62258064516129</v>
+        <v>49.20246168542698</v>
       </c>
     </row>
     <row r="71">
@@ -1384,10 +1384,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>47.08333333333334</v>
+        <v>49.64492671122376</v>
       </c>
       <c r="C71" t="n">
-        <v>45.00666666666667</v>
+        <v>49.14952697218788</v>
       </c>
     </row>
     <row r="72">
@@ -1397,10 +1397,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>46.81612903225806</v>
+        <v>49.00319994065657</v>
       </c>
       <c r="C72" t="n">
-        <v>47.55483870967742</v>
+        <v>48.57291625002568</v>
       </c>
     </row>
     <row r="73">
@@ -1410,10 +1410,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>43.28709677419355</v>
+        <v>47.75591321273239</v>
       </c>
       <c r="C73" t="n">
-        <v>45.71290322580645</v>
+        <v>46.96123256144796</v>
       </c>
     </row>
     <row r="74">
@@ -1423,10 +1423,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>44.65172413793104</v>
+        <v>49.24021222259866</v>
       </c>
       <c r="C74" t="n">
-        <v>45.94827586206897</v>
+        <v>48.45415910843478</v>
       </c>
     </row>
     <row r="75">
@@ -1436,10 +1436,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>43.9483870967742</v>
+        <v>46.54325266096967</v>
       </c>
       <c r="C75" t="n">
-        <v>46.46451612903226</v>
+        <v>47.7859459547951</v>
       </c>
     </row>
     <row r="76">
@@ -1449,10 +1449,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>43.83000000000001</v>
+        <v>47.78780436274343</v>
       </c>
       <c r="C76" t="n">
-        <v>46.89666666666667</v>
+        <v>49.7067849021669</v>
       </c>
     </row>
   </sheetData>
